--- a/isitword test/wordorderen.xlsx
+++ b/isitword test/wordorderen.xlsx
@@ -463,11 +463,11 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>word/worden0301.png</t>
+          <t>word/worden0661.png</t>
         </is>
       </c>
     </row>
@@ -476,14 +476,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>word/worden0872.png</t>
+          <t>word/worden0031.png</t>
         </is>
       </c>
     </row>
@@ -492,14 +492,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>word/worden0871.png</t>
+          <t>word/worden0712.png</t>
         </is>
       </c>
     </row>
@@ -511,11 +511,11 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>word/worden0883.png</t>
+          <t>word/worden0273.png</t>
         </is>
       </c>
     </row>
@@ -527,11 +527,11 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>word/worden0713.png</t>
+          <t>word/worden0883.png</t>
         </is>
       </c>
     </row>
@@ -540,14 +540,14 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>word/worden0963.png</t>
+          <t>word/worden0281.png</t>
         </is>
       </c>
     </row>
@@ -559,11 +559,11 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>word/worden0821.png</t>
+          <t>word/worden0501.png</t>
         </is>
       </c>
     </row>
@@ -572,14 +572,14 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>word/worden0662.png</t>
+          <t>word/worden0411.png</t>
         </is>
       </c>
     </row>
@@ -591,11 +591,11 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>word/worden0462.png</t>
+          <t>word/worden0522.png</t>
         </is>
       </c>
     </row>
@@ -604,14 +604,14 @@
         <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>word/worden0932.png</t>
+          <t>word/worden0063.png</t>
         </is>
       </c>
     </row>
@@ -620,14 +620,14 @@
         <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>word/worden0661.png</t>
+          <t>word/worden0463.png</t>
         </is>
       </c>
     </row>
@@ -636,14 +636,14 @@
         <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>word/worden0933.png</t>
+          <t>word/worden0302.png</t>
         </is>
       </c>
     </row>
@@ -652,14 +652,14 @@
         <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>word/worden0643.png</t>
+          <t>word/worden0462.png</t>
         </is>
       </c>
     </row>
@@ -668,14 +668,14 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>word/worden0941.png</t>
+          <t>word/worden0702.png</t>
         </is>
       </c>
     </row>
@@ -684,14 +684,14 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>word/worden0263.png</t>
+          <t>word/worden0701.png</t>
         </is>
       </c>
     </row>
@@ -700,14 +700,14 @@
         <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>word/worden0703.png</t>
+          <t>word/worden0081.png</t>
         </is>
       </c>
     </row>
@@ -719,11 +719,11 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>word/worden0223.png</t>
+          <t>word/worden0613.png</t>
         </is>
       </c>
     </row>
@@ -732,14 +732,14 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>word/worden0512.png</t>
+          <t>word/worden0103.png</t>
         </is>
       </c>
     </row>
@@ -751,11 +751,11 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>word/worden0303.png</t>
+          <t>word/worden0753.png</t>
         </is>
       </c>
     </row>
@@ -767,11 +767,11 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>word/worden0712.png</t>
+          <t>word/worden0632.png</t>
         </is>
       </c>
     </row>
@@ -780,14 +780,14 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>word/worden0682.png</t>
+          <t>word/worden0113.png</t>
         </is>
       </c>
     </row>
@@ -796,14 +796,14 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>word/worden0961.png</t>
+          <t>word/worden0892.png</t>
         </is>
       </c>
     </row>
@@ -812,14 +812,14 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>word/worden0242.png</t>
+          <t>word/worden0091.png</t>
         </is>
       </c>
     </row>
@@ -828,14 +828,14 @@
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>word/worden0822.png</t>
+          <t>word/worden0283.png</t>
         </is>
       </c>
     </row>
@@ -847,11 +847,11 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>word/worden0891.png</t>
+          <t>word/worden0821.png</t>
         </is>
       </c>
     </row>
@@ -860,14 +860,14 @@
         <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>word/worden0411.png</t>
+          <t>word/worden0282.png</t>
         </is>
       </c>
     </row>
@@ -876,14 +876,14 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>word/worden0313.png</t>
+          <t>word/worden0231.png</t>
         </is>
       </c>
     </row>
@@ -892,14 +892,14 @@
         <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>word/worden0093.png</t>
+          <t>word/worden0422.png</t>
         </is>
       </c>
     </row>
@@ -911,11 +911,11 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>word/worden0882.png</t>
+          <t>word/worden0932.png</t>
         </is>
       </c>
     </row>
@@ -927,11 +927,11 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>word/worden0631.png</t>
+          <t>word/worden0881.png</t>
         </is>
       </c>
     </row>
@@ -940,14 +940,14 @@
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>word/worden0111.png</t>
+          <t>word/worden0313.png</t>
         </is>
       </c>
     </row>
@@ -959,11 +959,11 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>word/worden0702.png</t>
+          <t>word/worden0752.png</t>
         </is>
       </c>
     </row>
@@ -972,14 +972,14 @@
         <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>word/worden0271.png</t>
+          <t>word/worden0482.png</t>
         </is>
       </c>
     </row>
@@ -988,14 +988,14 @@
         <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>word/worden0412.png</t>
+          <t>word/worden0261.png</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1004,14 @@
         <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>word/worden0101.png</t>
+          <t>word/worden0412.png</t>
         </is>
       </c>
     </row>
@@ -1023,11 +1023,11 @@
         <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>word/worden0503.png</t>
+          <t>word/worden0663.png</t>
         </is>
       </c>
     </row>
@@ -1036,14 +1036,14 @@
         <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>word/worden0483.png</t>
+          <t>word/worden0061.png</t>
         </is>
       </c>
     </row>
@@ -1055,11 +1055,11 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>word/worden0091.png</t>
+          <t>word/worden0421.png</t>
         </is>
       </c>
     </row>
@@ -1068,14 +1068,14 @@
         <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>word/worden0511.png</t>
+          <t>word/worden0413.png</t>
         </is>
       </c>
     </row>
@@ -1087,11 +1087,11 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>word/worden0082.png</t>
+          <t>word/worden0232.png</t>
         </is>
       </c>
     </row>
@@ -1100,14 +1100,14 @@
         <v>2</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>word/worden0951.png</t>
+          <t>word/worden0963.png</t>
         </is>
       </c>
     </row>
@@ -1119,11 +1119,11 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>word/worden0311.png</t>
+          <t>word/worden0611.png</t>
         </is>
       </c>
     </row>
@@ -1132,14 +1132,14 @@
         <v>2</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>word/worden0232.png</t>
+          <t>word/worden0093.png</t>
         </is>
       </c>
     </row>
@@ -1148,14 +1148,14 @@
         <v>2</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>word/worden0081.png</t>
+          <t>word/worden0633.png</t>
         </is>
       </c>
     </row>
@@ -1164,14 +1164,14 @@
         <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>word/worden0072.png</t>
+          <t>word/worden0503.png</t>
         </is>
       </c>
     </row>
@@ -1180,14 +1180,14 @@
         <v>2</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>word/worden0423.png</t>
+          <t>word/worden0272.png</t>
         </is>
       </c>
     </row>
@@ -1196,14 +1196,14 @@
         <v>2</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>word/worden0633.png</t>
+          <t>word/worden0612.png</t>
         </is>
       </c>
     </row>
@@ -1212,14 +1212,14 @@
         <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>word/worden0481.png</t>
+          <t>word/worden0073.png</t>
         </is>
       </c>
     </row>
@@ -1228,14 +1228,14 @@
         <v>2</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>word/worden0711.png</t>
+          <t>word/worden0233.png</t>
         </is>
       </c>
     </row>
@@ -1247,11 +1247,11 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>word/worden0751.png</t>
+          <t>word/worden0951.png</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1260,14 @@
         <v>2</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>word/worden0062.png</t>
+          <t>word/worden0423.png</t>
         </is>
       </c>
     </row>
@@ -1279,11 +1279,11 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>word/worden0881.png</t>
+          <t>word/worden0301.png</t>
         </is>
       </c>
     </row>
@@ -1292,14 +1292,14 @@
         <v>2</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>word/worden0422.png</t>
+          <t>word/worden0873.png</t>
         </is>
       </c>
     </row>
@@ -1311,11 +1311,11 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>word/worden0282.png</t>
+          <t>word/worden0062.png</t>
         </is>
       </c>
     </row>
@@ -1327,11 +1327,11 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>word/worden0952.png</t>
+          <t>word/worden0682.png</t>
         </is>
       </c>
     </row>
@@ -1340,14 +1340,14 @@
         <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>word/worden0011.png</t>
+          <t>word/worden0013.png</t>
         </is>
       </c>
     </row>
@@ -1359,11 +1359,11 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>word/worden0752.png</t>
+          <t>word/worden0942.png</t>
         </is>
       </c>
     </row>
@@ -1375,11 +1375,11 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>word/worden0243.png</t>
+          <t>word/worden0823.png</t>
         </is>
       </c>
     </row>
@@ -1388,14 +1388,14 @@
         <v>2</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>word/worden0112.png</t>
+          <t>word/worden0891.png</t>
         </is>
       </c>
     </row>
@@ -1404,14 +1404,14 @@
         <v>2</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>word/worden0642.png</t>
+          <t>word/worden0311.png</t>
         </is>
       </c>
     </row>
@@ -1423,11 +1423,11 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>word/worden0962.png</t>
+          <t>word/worden0512.png</t>
         </is>
       </c>
     </row>
@@ -1439,11 +1439,11 @@
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>word/worden0953.png</t>
+          <t>word/worden0443.png</t>
         </is>
       </c>
     </row>
@@ -1452,14 +1452,14 @@
         <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>word/worden0943.png</t>
+          <t>word/worden0011.png</t>
         </is>
       </c>
     </row>
@@ -1468,14 +1468,14 @@
         <v>2</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>word/worden0443.png</t>
+          <t>word/worden0961.png</t>
         </is>
       </c>
     </row>
@@ -1484,14 +1484,14 @@
         <v>2</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>word/worden0893.png</t>
+          <t>word/worden0111.png</t>
         </is>
       </c>
     </row>
@@ -1500,14 +1500,14 @@
         <v>2</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>word/worden0681.png</t>
+          <t>word/worden0703.png</t>
         </is>
       </c>
     </row>
@@ -1516,14 +1516,14 @@
         <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>word/worden0421.png</t>
+          <t>word/worden0713.png</t>
         </is>
       </c>
     </row>
@@ -1535,11 +1535,11 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>word/worden0061.png</t>
+          <t>word/worden0681.png</t>
         </is>
       </c>
     </row>
@@ -1551,11 +1551,11 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>word/worden0502.png</t>
+          <t>word/worden0882.png</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1564,14 @@
         <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>word/worden0701.png</t>
+          <t>word/worden0502.png</t>
         </is>
       </c>
     </row>
@@ -1580,14 +1580,14 @@
         <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>word/worden0281.png</t>
+          <t>word/worden0933.png</t>
         </is>
       </c>
     </row>
@@ -1596,14 +1596,14 @@
         <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>word/worden0613.png</t>
+          <t>word/worden0631.png</t>
         </is>
       </c>
     </row>
@@ -1615,11 +1615,11 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>word/worden0482.png</t>
+          <t>word/worden0072.png</t>
         </is>
       </c>
     </row>
@@ -1631,11 +1631,11 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>word/worden0312.png</t>
+          <t>word/worden0642.png</t>
         </is>
       </c>
     </row>
@@ -1644,14 +1644,14 @@
         <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>word/worden0892.png</t>
+          <t>word/worden0241.png</t>
         </is>
       </c>
     </row>
@@ -1663,11 +1663,11 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>word/worden0262.png</t>
+          <t>word/worden0012.png</t>
         </is>
       </c>
     </row>
@@ -1679,11 +1679,11 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>word/worden0221.png</t>
+          <t>word/worden0461.png</t>
         </is>
       </c>
     </row>
@@ -1692,14 +1692,14 @@
         <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>word/worden0461.png</t>
+          <t>word/worden0523.png</t>
         </is>
       </c>
     </row>
@@ -1708,14 +1708,14 @@
         <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>word/worden0083.png</t>
+          <t>word/worden0312.png</t>
         </is>
       </c>
     </row>
@@ -1724,14 +1724,14 @@
         <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>word/worden0073.png</t>
+          <t>word/worden0952.png</t>
         </is>
       </c>
     </row>
@@ -1740,14 +1740,14 @@
         <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>word/worden0683.png</t>
+          <t>word/worden0931.png</t>
         </is>
       </c>
     </row>
@@ -1759,11 +1759,11 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>word/worden0501.png</t>
+          <t>word/worden0711.png</t>
         </is>
       </c>
     </row>
@@ -1772,14 +1772,14 @@
         <v>2</v>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>word/worden0522.png</t>
+          <t>word/worden0481.png</t>
         </is>
       </c>
     </row>
@@ -1788,14 +1788,14 @@
         <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>word/worden0632.png</t>
+          <t>word/worden0941.png</t>
         </is>
       </c>
     </row>
@@ -1804,14 +1804,14 @@
         <v>2</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>word/worden0641.png</t>
+          <t>word/worden0683.png</t>
         </is>
       </c>
     </row>
@@ -1820,14 +1820,14 @@
         <v>2</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>word/worden0463.png</t>
+          <t>word/worden0662.png</t>
         </is>
       </c>
     </row>
@@ -1836,14 +1836,14 @@
         <v>2</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>word/worden0442.png</t>
+          <t>word/worden0953.png</t>
         </is>
       </c>
     </row>
@@ -1852,14 +1852,14 @@
         <v>2</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>word/worden0231.png</t>
+          <t>word/worden0303.png</t>
         </is>
       </c>
     </row>
@@ -1868,14 +1868,14 @@
         <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>word/worden0102.png</t>
+          <t>word/worden0223.png</t>
         </is>
       </c>
     </row>
@@ -1884,14 +1884,14 @@
         <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>word/worden0663.png</t>
+          <t>word/worden0751.png</t>
         </is>
       </c>
     </row>
@@ -1900,14 +1900,14 @@
         <v>2</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>word/worden0302.png</t>
+          <t>word/worden0641.png</t>
         </is>
       </c>
     </row>
@@ -1916,14 +1916,14 @@
         <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>word/worden0113.png</t>
+          <t>word/worden0271.png</t>
         </is>
       </c>
     </row>
@@ -1932,14 +1932,14 @@
         <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>word/worden0033.png</t>
+          <t>word/worden0242.png</t>
         </is>
       </c>
     </row>
@@ -1948,14 +1948,14 @@
         <v>2</v>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>word/worden0013.png</t>
+          <t>word/worden0871.png</t>
         </is>
       </c>
     </row>
@@ -1964,14 +1964,14 @@
         <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>word/worden0063.png</t>
+          <t>word/worden0071.png</t>
         </is>
       </c>
     </row>
@@ -1980,14 +1980,14 @@
         <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>word/worden0233.png</t>
+          <t>word/worden0092.png</t>
         </is>
       </c>
     </row>
@@ -2012,14 +2012,14 @@
         <v>2</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>word/worden0031.png</t>
+          <t>word/worden0102.png</t>
         </is>
       </c>
     </row>
@@ -2028,14 +2028,14 @@
         <v>2</v>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>word/worden0413.png</t>
+          <t>word/worden0822.png</t>
         </is>
       </c>
     </row>
@@ -2044,14 +2044,14 @@
         <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>word/worden0012.png</t>
+          <t>word/worden0893.png</t>
         </is>
       </c>
     </row>
@@ -2063,11 +2063,11 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>word/worden0092.png</t>
+          <t>word/worden0442.png</t>
         </is>
       </c>
     </row>
@@ -2076,14 +2076,14 @@
         <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>word/worden0942.png</t>
+          <t>word/worden0521.png</t>
         </is>
       </c>
     </row>
@@ -2095,11 +2095,11 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>word/worden0931.png</t>
+          <t>word/worden0511.png</t>
         </is>
       </c>
     </row>
@@ -2108,14 +2108,14 @@
         <v>2</v>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>word/worden0222.png</t>
+          <t>word/worden0513.png</t>
         </is>
       </c>
     </row>
@@ -2124,14 +2124,14 @@
         <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>word/worden0273.png</t>
+          <t>word/worden0082.png</t>
         </is>
       </c>
     </row>
@@ -2140,14 +2140,14 @@
         <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>word/worden0823.png</t>
+          <t>word/worden0032.png</t>
         </is>
       </c>
     </row>
@@ -2156,14 +2156,14 @@
         <v>2</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>word/worden0071.png</t>
+          <t>word/worden0033.png</t>
         </is>
       </c>
     </row>
@@ -2172,14 +2172,14 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>word/worden0611.png</t>
+          <t>word/worden0643.png</t>
         </is>
       </c>
     </row>
@@ -2191,11 +2191,11 @@
         <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>word/worden0103.png</t>
+          <t>word/worden0263.png</t>
         </is>
       </c>
     </row>
@@ -2207,11 +2207,11 @@
         <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>word/worden0272.png</t>
+          <t>word/worden0962.png</t>
         </is>
       </c>
     </row>
@@ -2220,14 +2220,14 @@
         <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>word/worden0513.png</t>
+          <t>word/worden0221.png</t>
         </is>
       </c>
     </row>
@@ -2239,11 +2239,11 @@
         <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>word/worden0612.png</t>
+          <t>word/worden0222.png</t>
         </is>
       </c>
     </row>
@@ -2252,14 +2252,14 @@
         <v>2</v>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>word/worden0873.png</t>
+          <t>word/worden0262.png</t>
         </is>
       </c>
     </row>
@@ -2268,14 +2268,14 @@
         <v>2</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>word/worden0241.png</t>
+          <t>word/worden0483.png</t>
         </is>
       </c>
     </row>
@@ -2284,14 +2284,14 @@
         <v>2</v>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>word/worden0283.png</t>
+          <t>word/worden0872.png</t>
         </is>
       </c>
     </row>
@@ -2303,11 +2303,11 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>word/worden0261.png</t>
+          <t>word/worden0101.png</t>
         </is>
       </c>
     </row>
@@ -2319,11 +2319,11 @@
         <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>word/worden0753.png</t>
+          <t>word/worden0083.png</t>
         </is>
       </c>
     </row>
@@ -2332,14 +2332,14 @@
         <v>2</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>word/worden0032.png</t>
+          <t>word/worden0943.png</t>
         </is>
       </c>
     </row>
@@ -2348,14 +2348,14 @@
         <v>2</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>word/worden0521.png</t>
+          <t>word/worden0112.png</t>
         </is>
       </c>
     </row>
@@ -2367,11 +2367,11 @@
         <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>word/worden0523.png</t>
+          <t>word/worden0243.png</t>
         </is>
       </c>
     </row>
